--- a/Additional_note_samples.xlsx
+++ b/Additional_note_samples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Eric/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C71080-163B-FC4B-A8A3-DE4B43FEF024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62DDA49-4CB2-0C41-90C5-09472FFCBD74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7740" yWindow="460" windowWidth="17800" windowHeight="14740" xr2:uid="{826FE629-8CA6-4148-AEC1-1A752001F23C}"/>
+    <workbookView xWindow="7740" yWindow="460" windowWidth="17800" windowHeight="14740" activeTab="1" xr2:uid="{826FE629-8CA6-4148-AEC1-1A752001F23C}"/>
   </bookViews>
   <sheets>
     <sheet name="HCAHeart_ID" sheetId="1" r:id="rId1"/>
@@ -150,12 +150,6 @@
     <t>H2</t>
   </si>
   <si>
-    <t>ED_H26</t>
-  </si>
-  <si>
-    <t>ED_H25</t>
-  </si>
-  <si>
     <t>H3</t>
   </si>
   <si>
@@ -168,24 +162,12 @@
     <t>H5</t>
   </si>
   <si>
-    <t>ED_H37</t>
-  </si>
-  <si>
-    <t>ED_H15</t>
-  </si>
-  <si>
     <t>ID_Table_S1</t>
   </si>
   <si>
     <t>ID_Filename</t>
   </si>
   <si>
-    <t>ED_H20</t>
-  </si>
-  <si>
-    <t>ED_H35</t>
-  </si>
-  <si>
     <t>BO_H64</t>
   </si>
   <si>
@@ -196,6 +178,24 @@
   </si>
   <si>
     <t>H18</t>
+  </si>
+  <si>
+    <t>BS_H26</t>
+  </si>
+  <si>
+    <t>BS_H25</t>
+  </si>
+  <si>
+    <t>BS_H37</t>
+  </si>
+  <si>
+    <t>BS_H15</t>
+  </si>
+  <si>
+    <t>BS_H20</t>
+  </si>
+  <si>
+    <t>BS_H35</t>
   </si>
 </sst>
 </file>
@@ -580,7 +580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F05112-C551-A14B-8396-3EA21B6EB481}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -862,8 +862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE996F1-2DF1-7642-96D4-336BC793B049}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -874,15 +874,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>36</v>
@@ -890,42 +890,42 @@
     </row>
     <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -949,26 +949,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Additional_note_samples.xlsx
+++ b/Additional_note_samples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Eric/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62DDA49-4CB2-0C41-90C5-09472FFCBD74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CD887F-9A50-984E-9989-B5306BF80E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7740" yWindow="460" windowWidth="17800" windowHeight="14740" activeTab="1" xr2:uid="{826FE629-8CA6-4148-AEC1-1A752001F23C}"/>
+    <workbookView xWindow="30320" yWindow="1180" windowWidth="17800" windowHeight="14740" xr2:uid="{826FE629-8CA6-4148-AEC1-1A752001F23C}"/>
   </bookViews>
   <sheets>
     <sheet name="HCAHeart_ID" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="54">
   <si>
     <t>HCAHeart7664652_premrna</t>
   </si>
@@ -196,6 +196,9 @@
   </si>
   <si>
     <t>BS_H35</t>
+  </si>
+  <si>
+    <t>H6</t>
   </si>
 </sst>
 </file>
@@ -580,7 +583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F05112-C551-A14B-8396-3EA21B6EB481}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -862,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE996F1-2DF1-7642-96D4-336BC793B049}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -917,7 +920,7 @@
         <v>51</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">

--- a/Additional_note_samples.xlsx
+++ b/Additional_note_samples.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Eric/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Eric/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CD887F-9A50-984E-9989-B5306BF80E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE4E534-9AD6-A74C-AA62-E8672B27952E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30320" yWindow="1180" windowWidth="17800" windowHeight="14740" xr2:uid="{826FE629-8CA6-4148-AEC1-1A752001F23C}"/>
+    <workbookView xWindow="0" yWindow="1320" windowWidth="24300" windowHeight="18900" activeTab="2" xr2:uid="{826FE629-8CA6-4148-AEC1-1A752001F23C}"/>
   </bookViews>
   <sheets>
     <sheet name="HCAHeart_ID" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="56">
   <si>
     <t>HCAHeart7664652_premrna</t>
   </si>
@@ -199,6 +199,12 @@
   </si>
   <si>
     <t>H6</t>
+  </si>
+  <si>
+    <t>BO_H72</t>
+  </si>
+  <si>
+    <t>H05</t>
   </si>
 </sst>
 </file>
@@ -583,7 +589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F05112-C551-A14B-8396-3EA21B6EB481}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -938,10 +944,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B75A73-6ED7-8044-B016-06FA0DC85D6B}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -974,6 +980,14 @@
         <v>46</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Additional_note_samples.xlsx
+++ b/Additional_note_samples.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Eric/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE4E534-9AD6-A74C-AA62-E8672B27952E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8738BFC-F49B-B34F-A4DC-DAF189DED267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1320" windowWidth="24300" windowHeight="18900" activeTab="2" xr2:uid="{826FE629-8CA6-4148-AEC1-1A752001F23C}"/>
+    <workbookView xWindow="3300" yWindow="2680" windowWidth="24300" windowHeight="18900" activeTab="2" xr2:uid="{826FE629-8CA6-4148-AEC1-1A752001F23C}"/>
   </bookViews>
   <sheets>
     <sheet name="HCAHeart_ID" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="58">
   <si>
     <t>HCAHeart7664652_premrna</t>
   </si>
@@ -205,6 +205,12 @@
   </si>
   <si>
     <t>H05</t>
+  </si>
+  <si>
+    <t>BO_H74</t>
+  </si>
+  <si>
+    <t>H73</t>
   </si>
 </sst>
 </file>
@@ -266,12 +272,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -893,7 +898,7 @@
       <c r="A2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -901,7 +906,7 @@
       <c r="A3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -909,7 +914,7 @@
       <c r="A4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s">
         <v>38</v>
       </c>
     </row>
@@ -917,23 +922,23 @@
       <c r="A5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" t="s">
         <v>39</v>
       </c>
     </row>
@@ -944,10 +949,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B75A73-6ED7-8044-B016-06FA0DC85D6B}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -965,7 +970,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B2" t="s">
@@ -973,7 +978,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B3" t="s">
@@ -986,6 +991,14 @@
       </c>
       <c r="B4" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
